--- a/Data/violations_in_ the_ contracts_over_control.xlsx
+++ b/Data/violations_in_ the_ contracts_over_control.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="21200" windowHeight="11260"/>
+    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="violations" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1996 г</t>
   </si>
@@ -88,14 +75,86 @@
     <t>Analysis of the control over the fulfillment of the terms of sales contracts by groups of privatization objects</t>
   </si>
   <si>
-    <t>Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for relevant year.   http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
+    <t>Data source - data is taken from official annual summary reports of the State Property Fund of Ukraine for relevant year.   http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html.</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>1996-2002</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2002_t.pdf</t>
+  </si>
+  <si>
+    <t>pages 53-60</t>
+  </si>
+  <si>
+    <t>part one - http://www.spfu.gov.ua/userfiles/pdf/zvit_20031.pdf, part 2 -http://www.spfu.gov.ua/userfiles/pdf/zvit_20032.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2004_12.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200512_1.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/200612.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2008.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/2009_12.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/zvit_19032013_1.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/userfiles/pdf/Zvit%202014.pdf</t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
+  </si>
+  <si>
+    <t>part 2. pages 53-54</t>
+  </si>
+  <si>
+    <t>pages 39-44</t>
+  </si>
+  <si>
+    <t>pages 36-43</t>
+  </si>
+  <si>
+    <t>pages 53-63</t>
+  </si>
+  <si>
+    <t>pages 45-51</t>
+  </si>
+  <si>
+    <t>pages 51-57</t>
+  </si>
+  <si>
+    <t>pages 25-33</t>
+  </si>
+  <si>
+    <t>pages 43-49</t>
+  </si>
+  <si>
+    <t>pages 24-29</t>
+  </si>
+  <si>
+    <t>Link to the Report</t>
+  </si>
+  <si>
+    <t>Pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +162,14 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,29 +189,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,14 +250,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -216,15 +284,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -251,10 +318,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,16 +493,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -444,7 +510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -452,7 +518,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -460,7 +526,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -468,7 +534,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -476,7 +542,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -484,7 +550,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -492,7 +558,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -500,7 +566,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -508,7 +574,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -516,7 +582,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -524,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -532,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -540,7 +606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -548,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -556,7 +622,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -564,7 +630,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -578,37 +644,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="115.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/violations_in_ the_ contracts_over_control.xlsx
+++ b/Data/violations_in_ the_ contracts_over_control.xlsx
@@ -1,70 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="21460" windowHeight="10220"/>
   </bookViews>
   <sheets>
     <sheet name="violations" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>1996 г</t>
-  </si>
-  <si>
-    <t>1997 г</t>
-  </si>
-  <si>
-    <t>1998 г</t>
-  </si>
-  <si>
-    <t>1999 г</t>
-  </si>
-  <si>
-    <t>2000 г</t>
-  </si>
-  <si>
-    <t>2001 г</t>
-  </si>
-  <si>
-    <t>2002 г</t>
-  </si>
-  <si>
-    <t>2003 г</t>
-  </si>
-  <si>
-    <t>2004 г</t>
-  </si>
-  <si>
-    <t>2005 г</t>
-  </si>
-  <si>
-    <t>2006 г</t>
-  </si>
-  <si>
-    <t>2008 г</t>
-  </si>
-  <si>
-    <t>2009 г</t>
-  </si>
-  <si>
-    <t>2012 г</t>
-  </si>
-  <si>
-    <t>2014 г</t>
-  </si>
-  <si>
-    <t>2015 г</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -153,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +171,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,14 +220,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -284,14 +254,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -318,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,146 +465,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1996</v>
       </c>
       <c r="B2">
         <v>36.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1997</v>
       </c>
       <c r="B3">
         <v>32.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1998</v>
       </c>
       <c r="B4">
         <v>26.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1999</v>
       </c>
       <c r="B5">
         <v>20.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2000</v>
       </c>
       <c r="B6">
         <v>19.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2001</v>
       </c>
       <c r="B7">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2002</v>
       </c>
       <c r="B8">
         <v>16.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2003</v>
       </c>
       <c r="B9">
         <v>13.7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2004</v>
       </c>
       <c r="B10">
         <v>13.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2005</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2006</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2008</v>
       </c>
       <c r="B13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2009</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2012</v>
       </c>
       <c r="B15">
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>14</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2014</v>
       </c>
       <c r="B16">
         <v>14.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>15</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2015</v>
       </c>
       <c r="B17">
         <v>13.4</v>
@@ -644,148 +616,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="115.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="115.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2012</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2015</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -797,12 +769,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
